--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -379,76 +379,82 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>productAttributeId</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>productAttributeId</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>productCategoryName</t>
+  </si>
+  <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
     <t>pic</t>
   </si>
   <si>
     <t>subTitle</t>
   </si>
   <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>productCategoryName</t>
-  </si>
-  <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>sale</t>
+    <t>elasticsearchRestTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
   </si>
   <si>
     <t>productRepository</t>
@@ -463,12 +469,6 @@
     <t>productDao</t>
   </si>
   <si>
-    <t>elasticsearchRestTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
-  </si>
-  <si>
     <t>attrValues</t>
   </si>
   <si>
@@ -481,10 +481,10 @@
     <t>productCategoryNames</t>
   </si>
   <si>
+    <t>productAttrs</t>
+  </si>
+  <si>
     <t>brandNames</t>
-  </si>
-  <si>
-    <t>productAttrs</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -3437,7 +3437,7 @@
         <v>89</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -3451,7 +3451,7 @@
         <v>89</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -3459,13 +3459,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -3473,13 +3473,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -3493,7 +3493,7 @@
         <v>89</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -3507,7 +3507,7 @@
         <v>89</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -3529,13 +3529,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -3543,13 +3543,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -3557,13 +3557,13 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -3571,13 +3571,13 @@
         <v>44</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -3591,7 +3591,7 @@
         <v>89</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -3605,7 +3605,7 @@
         <v>89</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -3613,13 +3613,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -3627,13 +3627,13 @@
         <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -3641,13 +3641,13 @@
         <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -3655,7 +3655,7 @@
         <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>89</v>
@@ -3669,13 +3669,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3683,13 +3683,13 @@
         <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3697,13 +3697,13 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -3711,13 +3711,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -3725,13 +3725,13 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -3739,7 +3739,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>89</v>
@@ -3759,7 +3759,7 @@
         <v>89</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -3773,7 +3773,7 @@
         <v>89</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -3787,7 +3787,7 @@
         <v>89</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -3801,7 +3801,7 @@
         <v>89</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
@@ -3809,13 +3809,13 @@
         <v>87</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -3829,7 +3829,7 @@
         <v>89</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -3837,13 +3837,13 @@
         <v>87</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="186">
   <si>
     <t>Class Name</t>
   </si>
@@ -379,76 +381,88 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productAttributeId</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>productAttributeId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>sale</t>
   </si>
   <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>newStatus</t>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>productCategoryId</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>keywords</t>
+    <t>pic</t>
   </si>
   <si>
     <t>productCategoryName</t>
   </si>
   <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>subTitle</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>productDao</t>
+  </si>
+  <si>
+    <t>productRepository</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>elasticsearchRestTemplate</t>
@@ -457,18 +471,6 @@
     <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
   </si>
   <si>
-    <t>productRepository</t>
-  </si>
-  <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>productDao</t>
-  </si>
-  <si>
     <t>attrValues</t>
   </si>
   <si>
@@ -536,6 +538,48 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -3265,6 +3309,1115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D9"/>
@@ -3437,7 +4590,7 @@
         <v>89</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -3465,7 +4618,7 @@
         <v>89</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -3479,7 +4632,7 @@
         <v>89</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -3493,7 +4646,7 @@
         <v>89</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -3507,7 +4660,7 @@
         <v>89</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -3529,13 +4682,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -3543,7 +4696,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>89</v>
@@ -3557,13 +4710,13 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -3571,13 +4724,13 @@
         <v>44</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -3585,13 +4738,13 @@
         <v>44</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -3599,13 +4752,13 @@
         <v>44</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
@@ -3613,13 +4766,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -3627,7 +4780,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>89</v>
@@ -3641,7 +4794,7 @@
         <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>89</v>
@@ -3655,13 +4808,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -3669,13 +4822,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3683,7 +4836,7 @@
         <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>89</v>
@@ -3697,13 +4850,13 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3711,13 +4864,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -3725,7 +4878,7 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>89</v>
@@ -3739,13 +4892,13 @@
         <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -3759,7 +4912,7 @@
         <v>89</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -3787,7 +4940,7 @@
         <v>89</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -3801,7 +4954,7 @@
         <v>89</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>144</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -3809,7 +4962,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>89</v>
@@ -3823,13 +4976,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31">
@@ -3837,13 +4990,13 @@
         <v>87</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32">

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -384,109 +384,109 @@
     <t>productAttributeId</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>productCategoryName</t>
+  </si>
+  <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
     <t>keywords</t>
   </si>
   <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>brandId</t>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>productSn</t>
   </si>
   <si>
     <t>sort</t>
   </si>
   <si>
-    <t>subTitle</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>productCategoryName</t>
+    <t>elasticsearchRestTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
   </si>
   <si>
     <t>productDao</t>
   </si>
   <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>productRepository</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>elasticsearchRestTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
+    <t>attrName</t>
+  </si>
+  <si>
+    <t>attrId</t>
   </si>
   <si>
     <t>attrValues</t>
   </si>
   <si>
-    <t>attrName</t>
-  </si>
-  <si>
-    <t>attrId</t>
+    <t>brandNames</t>
   </si>
   <si>
     <t>productCategoryNames</t>
   </si>
   <si>
     <t>productAttrs</t>
-  </si>
-  <si>
-    <t>brandNames</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -4604,7 +4604,7 @@
         <v>89</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -4612,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>89</v>
@@ -4626,13 +4626,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -4640,13 +4640,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -4660,7 +4660,7 @@
         <v>89</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -4696,13 +4696,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -4710,7 +4710,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>89</v>
@@ -4724,13 +4724,13 @@
         <v>44</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -4738,7 +4738,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>89</v>
@@ -4752,13 +4752,13 @@
         <v>44</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -4766,13 +4766,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -4780,13 +4780,13 @@
         <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -4794,13 +4794,13 @@
         <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -4808,13 +4808,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -4842,7 +4842,7 @@
         <v>89</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -4850,13 +4850,13 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -4864,13 +4864,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -4884,7 +4884,7 @@
         <v>89</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -4898,7 +4898,7 @@
         <v>89</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -4940,7 +4940,7 @@
         <v>89</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -4954,7 +4954,7 @@
         <v>89</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>103</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
@@ -4962,13 +4962,13 @@
         <v>87</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -4976,13 +4976,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -4990,13 +4990,13 @@
         <v>87</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -5010,7 +5010,7 @@
         <v>89</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -5024,7 +5024,7 @@
         <v>89</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -5038,7 +5038,7 @@
         <v>89</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="198">
   <si>
     <t>Class Name</t>
   </si>
@@ -381,84 +381,87 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>productAttributeId</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
     <t>pic</t>
   </si>
   <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
     <t>productCategoryName</t>
   </si>
   <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
-    <t>subTitle</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>brandId</t>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>sort</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
     <t>elasticsearchRestTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
   </si>
   <si>
+    <t>productRepository</t>
+  </si>
+  <si>
     <t>productDao</t>
   </si>
   <si>
@@ -468,27 +471,24 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>productRepository</t>
-  </si>
-  <si>
     <t>attrName</t>
   </si>
   <si>
+    <t>attrValues</t>
+  </si>
+  <si>
     <t>attrId</t>
   </si>
   <si>
-    <t>attrValues</t>
+    <t>productAttrs</t>
+  </si>
+  <si>
+    <t>productCategoryNames</t>
   </si>
   <si>
     <t>brandNames</t>
   </si>
   <si>
-    <t>productCategoryNames</t>
-  </si>
-  <si>
-    <t>productAttrs</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -543,7 +543,46 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>39</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>EsProductAttributeValue()</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>EsProductController()</t>
+  </si>
+  <si>
+    <t>SwaggerConfig()</t>
+  </si>
+  <si>
+    <t>EsProduct()</t>
   </si>
   <si>
     <t>11</t>
@@ -552,34 +591,31 @@
     <t>9</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>EsProductServiceImpl()</t>
+  </si>
+  <si>
+    <t>EsProductRelatedInfo$ProductAttr()</t>
+  </si>
+  <si>
+    <t>EsProductRelatedInfo()</t>
+  </si>
+  <si>
+    <t>MallSearchApplication()</t>
+  </si>
+  <si>
+    <t>MyBatisConfig()</t>
   </si>
 </sst>
 </file>
@@ -3386,7 +3422,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -3394,7 +3430,7 @@
         <v>103</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -3402,7 +3438,7 @@
         <v>105</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -3410,7 +3446,7 @@
         <v>107</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
@@ -3418,7 +3454,7 @@
         <v>109</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3428,7 +3464,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3453,7 +3489,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
@@ -3464,7 +3500,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -3475,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -3486,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -3497,7 +3533,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
@@ -3508,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
@@ -3519,7 +3555,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -3530,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -3541,7 +3577,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
@@ -3552,15 +3588,15 @@
         <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>180</v>
@@ -3571,10 +3607,10 @@
         <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
@@ -3582,10 +3618,10 @@
         <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -3593,10 +3629,10 @@
         <v>113</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -3604,10 +3640,10 @@
         <v>113</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
@@ -3615,10 +3651,10 @@
         <v>113</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -3626,10 +3662,10 @@
         <v>113</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -3637,32 +3673,32 @@
         <v>113</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -3670,7 +3706,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>160</v>
@@ -3681,7 +3717,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>160</v>
@@ -3692,7 +3728,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>160</v>
@@ -3703,7 +3739,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>160</v>
@@ -3714,7 +3750,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>160</v>
@@ -3725,7 +3761,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>160</v>
@@ -3733,57 +3769,57 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33">
@@ -3791,10 +3827,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
@@ -3802,10 +3838,10 @@
         <v>44</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
@@ -3813,10 +3849,10 @@
         <v>44</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36">
@@ -3824,10 +3860,10 @@
         <v>44</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37">
@@ -3835,10 +3871,10 @@
         <v>44</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38">
@@ -3846,10 +3882,10 @@
         <v>44</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39">
@@ -3857,10 +3893,10 @@
         <v>44</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -3868,10 +3904,10 @@
         <v>44</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41">
@@ -3879,10 +3915,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42">
@@ -3890,10 +3926,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43">
@@ -3901,10 +3937,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -3912,10 +3948,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45">
@@ -3923,10 +3959,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46">
@@ -3934,10 +3970,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47">
@@ -3945,10 +3981,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48">
@@ -3956,10 +3992,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49">
@@ -3967,10 +4003,10 @@
         <v>44</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50">
@@ -3978,10 +4014,10 @@
         <v>44</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51">
@@ -3989,10 +4025,10 @@
         <v>44</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52">
@@ -4000,10 +4036,10 @@
         <v>44</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53">
@@ -4011,10 +4047,10 @@
         <v>44</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54">
@@ -4022,10 +4058,10 @@
         <v>44</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55">
@@ -4033,10 +4069,10 @@
         <v>44</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56">
@@ -4044,10 +4080,10 @@
         <v>44</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57">
@@ -4055,10 +4091,10 @@
         <v>44</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58">
@@ -4066,10 +4102,10 @@
         <v>44</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
@@ -4077,10 +4113,10 @@
         <v>44</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60">
@@ -4088,10 +4124,10 @@
         <v>44</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61">
@@ -4099,10 +4135,10 @@
         <v>44</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62">
@@ -4110,10 +4146,10 @@
         <v>44</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63">
@@ -4121,10 +4157,10 @@
         <v>44</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64">
@@ -4132,10 +4168,10 @@
         <v>44</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65">
@@ -4143,54 +4179,54 @@
         <v>44</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70">
@@ -4198,10 +4234,10 @@
         <v>87</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71">
@@ -4209,10 +4245,10 @@
         <v>87</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72">
@@ -4220,10 +4256,10 @@
         <v>87</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73">
@@ -4231,10 +4267,10 @@
         <v>87</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74">
@@ -4242,65 +4278,65 @@
         <v>87</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80">
@@ -4308,109 +4344,208 @@
         <v>90</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B89" t="s" s="0">
+      <c r="B96" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C89" t="s" s="0">
-        <v>182</v>
+      <c r="C96" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4590,7 +4725,7 @@
         <v>89</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -4598,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>89</v>
@@ -4612,13 +4747,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -4626,13 +4761,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -4640,13 +4775,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -4688,7 +4823,7 @@
         <v>89</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -4696,13 +4831,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -4710,13 +4845,13 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -4724,13 +4859,13 @@
         <v>44</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -4738,7 +4873,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>89</v>
@@ -4752,13 +4887,13 @@
         <v>44</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -4766,13 +4901,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -4780,13 +4915,13 @@
         <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -4794,7 +4929,7 @@
         <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>89</v>
@@ -4808,13 +4943,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -4822,13 +4957,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -4836,7 +4971,7 @@
         <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>89</v>
@@ -4850,7 +4985,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>89</v>
@@ -4864,13 +4999,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -4878,13 +5013,13 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -4892,7 +5027,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>89</v>
@@ -4906,7 +5041,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>89</v>
@@ -4920,13 +5055,13 @@
         <v>44</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -4968,7 +5103,7 @@
         <v>89</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -4982,7 +5117,7 @@
         <v>89</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -4990,13 +5125,13 @@
         <v>87</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>89</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32">
@@ -5024,7 +5159,7 @@
         <v>89</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -5038,7 +5173,7 @@
         <v>89</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="197">
   <si>
     <t>Class Name</t>
   </si>
@@ -555,7 +555,7 @@
     <t>127</t>
   </si>
   <si>
-    <t>168</t>
+    <t>181</t>
   </si>
   <si>
     <t>21</t>
@@ -564,9 +564,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>EsProductAttributeValue()</t>
   </si>
   <si>
@@ -591,16 +588,16 @@
     <t>9</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>27</t>
+    <t>37</t>
   </si>
   <si>
     <t>EsProductServiceImpl()</t>
@@ -3454,7 +3451,7 @@
         <v>109</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3596,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -3610,7 +3607,7 @@
         <v>115</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
@@ -3621,7 +3618,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
@@ -3632,7 +3629,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
@@ -3643,7 +3640,7 @@
         <v>43</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
@@ -3654,7 +3651,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -3665,7 +3662,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -3676,7 +3673,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -3687,7 +3684,7 @@
         <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -3695,10 +3692,10 @@
         <v>113</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
@@ -3816,10 +3813,10 @@
         <v>48</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -4223,10 +4220,10 @@
         <v>44</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70">
@@ -4237,7 +4234,7 @@
         <v>46</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71">
@@ -4259,7 +4256,7 @@
         <v>43</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73">
@@ -4270,7 +4267,7 @@
         <v>45</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74">
@@ -4281,7 +4278,7 @@
         <v>37</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75">
@@ -4292,7 +4289,7 @@
         <v>39</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76">
@@ -4303,7 +4300,7 @@
         <v>40</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77">
@@ -4314,7 +4311,7 @@
         <v>41</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78">
@@ -4325,7 +4322,7 @@
         <v>88</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
@@ -4333,10 +4330,10 @@
         <v>87</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80">
@@ -4410,10 +4407,10 @@
         <v>90</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87">
@@ -4487,10 +4484,10 @@
         <v>42</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94">
@@ -4531,10 +4528,10 @@
         <v>107</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
@@ -4542,10 +4539,10 @@
         <v>109</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="197">
   <si>
     <t>Class Name</t>
   </si>
@@ -99,6 +99,9 @@
     <t>wait()</t>
   </si>
   <si>
+    <t>EsProductAttributeValue()</t>
+  </si>
+  <si>
     <t>getId()</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>com.macro.mall.search.config.SwaggerConfig</t>
   </si>
   <si>
+    <t>SwaggerConfig()</t>
+  </si>
+  <si>
     <t>springfoxHandlerProviderBeanPostProcessor()</t>
   </si>
   <si>
@@ -231,6 +237,9 @@
     <t>getProductCategoryName()</t>
   </si>
   <si>
+    <t>EsProduct()</t>
+  </si>
+  <si>
     <t>getSale()</t>
   </si>
   <si>
@@ -288,6 +297,9 @@
     <t>com.macro.mall.search.service.impl.EsProductServiceImpl</t>
   </si>
   <si>
+    <t>EsProductServiceImpl()</t>
+  </si>
+  <si>
     <t>convertProductRelatedInfo(org.springframework.data.elasticsearch.core.SearchHits)</t>
   </si>
   <si>
@@ -300,6 +312,9 @@
     <t>setAttrValues(java.util.List)</t>
   </si>
   <si>
+    <t>EsProductRelatedInfo$ProductAttr()</t>
+  </si>
+  <si>
     <t>getAttrId()</t>
   </si>
   <si>
@@ -330,6 +345,9 @@
     <t>setProductCategoryNames(java.util.List)</t>
   </si>
   <si>
+    <t>EsProductRelatedInfo()</t>
+  </si>
+  <si>
     <t>getProductCategoryNames()</t>
   </si>
   <si>
@@ -351,9 +369,15 @@
     <t>main(java.lang.String[])</t>
   </si>
   <si>
+    <t>MallSearchApplication()</t>
+  </si>
+  <si>
     <t>com.macro.mall.search.config.MyBatisConfig</t>
   </si>
   <si>
+    <t>MyBatisConfig()</t>
+  </si>
+  <si>
     <t>Interface Name</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>com.macro.mall.common.api.CommonResult</t>
   </si>
   <si>
+    <t>EsProductController()</t>
+  </si>
+  <si>
     <t>importAllList()</t>
   </si>
   <si>
@@ -381,94 +408,97 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>productAttributeId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>productAttributeId</t>
-  </si>
-  <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
     <t>productCategoryId</t>
   </si>
   <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>productCategoryName</t>
+  </si>
+  <si>
     <t>brandName</t>
   </si>
   <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>subTitle</t>
-  </si>
-  <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>productCategoryName</t>
-  </si>
-  <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>elasticsearchRestTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
   </si>
   <si>
+    <t>productDao</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>productRepository</t>
   </si>
   <si>
-    <t>productDao</t>
-  </si>
-  <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
+    <t>attrId</t>
   </si>
   <si>
     <t>attrName</t>
@@ -477,18 +507,15 @@
     <t>attrValues</t>
   </si>
   <si>
-    <t>attrId</t>
+    <t>productCategoryNames</t>
+  </si>
+  <si>
+    <t>brandNames</t>
   </si>
   <si>
     <t>productAttrs</t>
   </si>
   <si>
-    <t>productCategoryNames</t>
-  </si>
-  <si>
-    <t>brandNames</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -564,24 +591,12 @@
     <t>3</t>
   </si>
   <si>
-    <t>EsProductAttributeValue()</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>EsProductController()</t>
-  </si>
-  <si>
-    <t>SwaggerConfig()</t>
-  </si>
-  <si>
-    <t>EsProduct()</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -598,21 +613,6 @@
   </si>
   <si>
     <t>37</t>
-  </si>
-  <si>
-    <t>EsProductServiceImpl()</t>
-  </si>
-  <si>
-    <t>EsProductRelatedInfo$ProductAttr()</t>
-  </si>
-  <si>
-    <t>EsProductRelatedInfo()</t>
-  </si>
-  <si>
-    <t>MallSearchApplication()</t>
-  </si>
-  <si>
-    <t>MyBatisConfig()</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -870,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -906,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -965,85 +965,85 @@
         <v>34</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>40</v>
@@ -1052,113 +1052,113 @@
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>46</v>
@@ -1178,29 +1178,29 @@
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -1211,94 +1211,94 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>49</v>
-      </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
@@ -1309,24 +1309,24 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>7</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>57</v>
@@ -1365,24 +1365,24 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
@@ -1393,77 +1393,77 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>63</v>
@@ -1472,12 +1472,12 @@
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>64</v>
@@ -1486,12 +1486,12 @@
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>65</v>
@@ -1500,15 +1500,15 @@
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>32</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -1561,24 +1561,24 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -1589,35 +1589,35 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>71</v>
@@ -1626,29 +1626,29 @@
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -1659,35 +1659,35 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>75</v>
@@ -1696,12 +1696,12 @@
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>76</v>
@@ -1710,12 +1710,12 @@
         <v>6</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>77</v>
@@ -1724,12 +1724,12 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>78</v>
@@ -1738,71 +1738,71 @@
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
@@ -1827,38 +1827,38 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
@@ -1883,35 +1883,35 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>86</v>
@@ -1920,197 +1920,197 @@
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B91" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
@@ -2121,38 +2121,38 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>6</v>
@@ -2163,21 +2163,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>47</v>
@@ -2186,21 +2186,21 @@
         <v>6</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -2208,13 +2208,13 @@
         <v>90</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -2222,13 +2222,13 @@
         <v>90</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
@@ -2236,7 +2236,7 @@
         <v>90</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
@@ -2250,38 +2250,38 @@
         <v>90</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s" s="0">
         <v>7</v>
@@ -2289,94 +2289,94 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
@@ -2387,38 +2387,38 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>6</v>
@@ -2429,52 +2429,52 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
         <v>7</v>
@@ -2499,69 +2499,69 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s" s="0">
         <v>7</v>
@@ -2569,24 +2569,24 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>6</v>
@@ -2597,66 +2597,66 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
@@ -2667,66 +2667,66 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>6</v>
@@ -2737,80 +2737,80 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>6</v>
@@ -2821,24 +2821,24 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
@@ -2849,80 +2849,80 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>6</v>
@@ -2933,80 +2933,80 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
@@ -3017,80 +3017,80 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
@@ -3101,111 +3101,111 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
         <v>7</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>6</v>
@@ -3227,24 +3227,24 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>6</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>6</v>
@@ -3269,41 +3269,41 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s" s="0">
         <v>7</v>
@@ -3311,29 +3311,141 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B191" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B199" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C191" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D191" t="s" s="0">
+      <c r="C199" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -3355,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -3363,95 +3475,95 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3475,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -3486,7 +3598,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
@@ -3494,10 +3606,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -3505,10 +3617,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -3516,10 +3628,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
@@ -3527,10 +3639,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7">
@@ -3538,10 +3650,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
@@ -3549,10 +3661,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -3560,10 +3672,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
@@ -3571,10 +3683,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
@@ -3582,10 +3694,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
@@ -3593,956 +3705,945 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>40</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>40</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>41</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="C98" t="s" s="0">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4552,7 +4653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4560,13 +4661,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -4574,91 +4675,91 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>40</v>
@@ -4667,21 +4768,35 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4702,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -4716,13 +4831,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -4730,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -4744,10 +4859,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>18</v>
@@ -4758,13 +4873,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -4772,13 +4887,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -4786,80 +4901,80 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>14</v>
@@ -4867,13 +4982,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>14</v>
@@ -4881,338 +4996,338 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>132</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5230,359 +5345,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>48</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5600,19 +5715,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5630,155 +5745,155 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>168</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="D2" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5796,19 +5911,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>168</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5826,19 +5941,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5856,19 +5971,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="197">
   <si>
     <t>Class Name</t>
   </si>
@@ -408,84 +408,87 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productAttributeId</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>productAttributeId</t>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>newStatus</t>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
+    <t>productCategoryName</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>promotionType</t>
   </si>
   <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
     <t>sale</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>subTitle</t>
-  </si>
-  <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>productCategoryName</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
     <t>elasticsearchRestTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
   </si>
   <si>
+    <t>productRepository</t>
+  </si>
+  <si>
     <t>productDao</t>
   </si>
   <si>
@@ -495,9 +498,6 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>productRepository</t>
-  </si>
-  <si>
     <t>attrId</t>
   </si>
   <si>
@@ -507,13 +507,13 @@
     <t>attrValues</t>
   </si>
   <si>
+    <t>productAttrs</t>
+  </si>
+  <si>
     <t>productCategoryNames</t>
   </si>
   <si>
     <t>brandNames</t>
-  </si>
-  <si>
-    <t>productAttrs</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -3573,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3595,10 +3595,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
@@ -3606,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>188</v>
@@ -3617,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>188</v>
@@ -3628,7 +3628,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>188</v>
@@ -3639,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>188</v>
@@ -3650,7 +3650,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>188</v>
@@ -3661,7 +3661,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>188</v>
@@ -3672,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>188</v>
@@ -3683,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>188</v>
@@ -3694,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>188</v>
@@ -3702,13 +3702,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
@@ -3716,10 +3716,10 @@
         <v>121</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -3727,7 +3727,7 @@
         <v>121</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>189</v>
@@ -3738,10 +3738,10 @@
         <v>121</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -3749,7 +3749,7 @@
         <v>121</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>189</v>
@@ -3760,10 +3760,10 @@
         <v>121</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -3771,7 +3771,7 @@
         <v>121</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>189</v>
@@ -3782,7 +3782,7 @@
         <v>121</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>189</v>
@@ -3790,24 +3790,24 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -3815,7 +3815,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>169</v>
@@ -3826,7 +3826,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>169</v>
@@ -3837,7 +3837,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>169</v>
@@ -3848,7 +3848,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>169</v>
@@ -3859,7 +3859,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>169</v>
@@ -3870,7 +3870,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>169</v>
@@ -3878,43 +3878,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>188</v>
@@ -3922,10 +3922,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>188</v>
@@ -3936,10 +3936,10 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -3947,7 +3947,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>188</v>
@@ -3958,7 +3958,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>188</v>
@@ -3969,7 +3969,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>188</v>
@@ -3980,7 +3980,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>188</v>
@@ -3991,7 +3991,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>188</v>
@@ -4002,7 +4002,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>188</v>
@@ -4013,7 +4013,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>188</v>
@@ -4024,7 +4024,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>188</v>
@@ -4035,7 +4035,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>188</v>
@@ -4046,7 +4046,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>188</v>
@@ -4057,7 +4057,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>188</v>
@@ -4068,7 +4068,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>188</v>
@@ -4079,7 +4079,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>188</v>
@@ -4090,7 +4090,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>188</v>
@@ -4101,7 +4101,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>188</v>
@@ -4112,7 +4112,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>188</v>
@@ -4123,7 +4123,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>188</v>
@@ -4134,7 +4134,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>188</v>
@@ -4145,7 +4145,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>188</v>
@@ -4156,7 +4156,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>188</v>
@@ -4167,7 +4167,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>188</v>
@@ -4178,7 +4178,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>188</v>
@@ -4189,7 +4189,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>188</v>
@@ -4200,7 +4200,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>188</v>
@@ -4211,7 +4211,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>188</v>
@@ -4222,7 +4222,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>188</v>
@@ -4233,7 +4233,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>188</v>
@@ -4244,7 +4244,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>188</v>
@@ -4255,7 +4255,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>188</v>
@@ -4266,7 +4266,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>188</v>
@@ -4277,7 +4277,7 @@
         <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>188</v>
@@ -4288,7 +4288,7 @@
         <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>188</v>
@@ -4296,21 +4296,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>188</v>
@@ -4318,24 +4318,24 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70">
@@ -4343,10 +4343,10 @@
         <v>90</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71">
@@ -4354,10 +4354,10 @@
         <v>90</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72">
@@ -4365,10 +4365,10 @@
         <v>90</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
@@ -4376,10 +4376,10 @@
         <v>90</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74">
@@ -4387,65 +4387,65 @@
         <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80">
@@ -4453,18 +4453,18 @@
         <v>94</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>188</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>188</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>188</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>188</v>
@@ -4505,10 +4505,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>188</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>188</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>169</v>
@@ -4538,111 +4538,23 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B90" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="C90" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B91" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C91" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B92" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="C92" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B93" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="C93" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="C94" t="s" s="0">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="C96" t="s" s="0">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C97" t="s" s="0">
         <v>188</v>
       </c>
     </row>
@@ -4837,7 +4749,7 @@
         <v>93</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -4851,7 +4763,7 @@
         <v>93</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -4865,7 +4777,7 @@
         <v>93</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -4873,13 +4785,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -4893,7 +4805,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -4935,7 +4847,7 @@
         <v>93</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -4949,7 +4861,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -4963,7 +4875,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -4999,13 +4911,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -5019,7 +4931,7 @@
         <v>93</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -5033,7 +4945,7 @@
         <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -5041,13 +4953,13 @@
         <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -5055,13 +4967,13 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -5069,13 +4981,13 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -5083,13 +4995,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -5097,7 +5009,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>93</v>
@@ -5111,7 +5023,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>93</v>
@@ -5125,13 +5037,13 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
@@ -5139,13 +5051,13 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -5153,13 +5065,13 @@
         <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -5167,13 +5079,13 @@
         <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -5187,7 +5099,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -5215,7 +5127,7 @@
         <v>93</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -5229,7 +5141,7 @@
         <v>93</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -5237,13 +5149,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="197">
   <si>
     <t>Class Name</t>
   </si>
@@ -390,13 +390,13 @@
     <t>com.macro.mall.search.controller.EsProductController</t>
   </si>
   <si>
+    <t>importAllList()</t>
+  </si>
+  <si>
     <t>com.macro.mall.common.api.CommonResult</t>
   </si>
   <si>
     <t>EsProductController()</t>
-  </si>
-  <si>
-    <t>importAllList()</t>
   </si>
   <si>
     <t>Field Name</t>
@@ -3705,7 +3705,7 @@
         <v>121</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>189</v>
@@ -4565,7 +4565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4590,13 +4590,13 @@
         <v>121</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4604,13 +4604,13 @@
         <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -4618,13 +4618,13 @@
         <v>121</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -4632,13 +4632,13 @@
         <v>121</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -4660,13 +4660,13 @@
         <v>121</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -4674,13 +4674,13 @@
         <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -4688,13 +4688,13 @@
         <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -4702,13 +4702,139 @@
         <v>121</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>122</v>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5779,7 +5905,7 @@
         <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>37</v>

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="198">
   <si>
     <t>Class Name</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>4</t>
@@ -3563,7 +3566,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3595,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -3606,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>188</v>
@@ -3617,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>188</v>
@@ -3628,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>188</v>
@@ -3639,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>188</v>
@@ -3650,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>188</v>
@@ -3661,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>188</v>
@@ -3672,7 +3675,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>188</v>
@@ -3683,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>188</v>
@@ -3694,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>188</v>
@@ -3702,13 +3705,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -3716,7 +3719,7 @@
         <v>121</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>189</v>
@@ -3727,10 +3730,10 @@
         <v>121</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -3738,7 +3741,7 @@
         <v>121</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>190</v>
@@ -3749,10 +3752,10 @@
         <v>121</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
@@ -3760,10 +3763,10 @@
         <v>121</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
@@ -3771,10 +3774,10 @@
         <v>121</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -3782,32 +3785,32 @@
         <v>121</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -3815,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>169</v>
@@ -3826,7 +3829,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>169</v>
@@ -3837,7 +3840,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>169</v>
@@ -3848,7 +3851,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>169</v>
@@ -3859,7 +3862,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>169</v>
@@ -3870,7 +3873,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>169</v>
@@ -3878,43 +3881,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>188</v>
@@ -3922,10 +3925,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>188</v>
@@ -3936,10 +3939,10 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34">
@@ -3947,7 +3950,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>188</v>
@@ -3958,7 +3961,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>188</v>
@@ -3969,7 +3972,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>188</v>
@@ -3980,7 +3983,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>188</v>
@@ -3991,7 +3994,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>188</v>
@@ -4002,7 +4005,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>188</v>
@@ -4013,7 +4016,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>188</v>
@@ -4024,7 +4027,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>188</v>
@@ -4035,7 +4038,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>188</v>
@@ -4046,7 +4049,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>188</v>
@@ -4057,7 +4060,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>188</v>
@@ -4068,7 +4071,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>188</v>
@@ -4079,7 +4082,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>188</v>
@@ -4090,7 +4093,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>188</v>
@@ -4101,7 +4104,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>188</v>
@@ -4112,7 +4115,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>188</v>
@@ -4123,7 +4126,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>188</v>
@@ -4134,7 +4137,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>188</v>
@@ -4145,7 +4148,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>188</v>
@@ -4156,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>188</v>
@@ -4167,7 +4170,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>188</v>
@@ -4178,7 +4181,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>188</v>
@@ -4189,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>188</v>
@@ -4200,7 +4203,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>188</v>
@@ -4211,7 +4214,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>188</v>
@@ -4222,7 +4225,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>188</v>
@@ -4233,7 +4236,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>188</v>
@@ -4244,7 +4247,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>188</v>
@@ -4255,7 +4258,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>188</v>
@@ -4266,7 +4269,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>188</v>
@@ -4277,7 +4280,7 @@
         <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>188</v>
@@ -4288,7 +4291,7 @@
         <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>188</v>
@@ -4296,21 +4299,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>188</v>
@@ -4318,24 +4321,24 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70">
@@ -4343,7 +4346,7 @@
         <v>90</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>189</v>
@@ -4354,10 +4357,10 @@
         <v>90</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72">
@@ -4365,10 +4368,10 @@
         <v>90</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73">
@@ -4376,10 +4379,10 @@
         <v>90</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74">
@@ -4387,65 +4390,65 @@
         <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80">
@@ -4453,7 +4456,7 @@
         <v>94</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>188</v>
@@ -4461,10 +4464,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>188</v>
@@ -4472,10 +4475,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>188</v>
@@ -4483,10 +4486,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>188</v>
@@ -4494,10 +4497,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>188</v>
@@ -4505,10 +4508,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>188</v>
@@ -4519,42 +4522,119 @@
         <v>43</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B89" t="s" s="0">
+      <c r="B95" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C89" t="s" s="0">
+      <c r="C96" t="s" s="0">
         <v>188</v>
       </c>
     </row>

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="198">
   <si>
     <t>Class Name</t>
   </si>
@@ -408,112 +408,112 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>productAttributeId</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
     <t>recommandStatus</t>
   </si>
   <si>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
     <t>productSn</t>
   </si>
   <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>subTitle</t>
   </si>
   <si>
     <t>productCategoryName</t>
   </si>
   <si>
-    <t>subTitle</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
     <t>elasticsearchRestTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
   </si>
   <si>
+    <t>productDao</t>
+  </si>
+  <si>
     <t>productRepository</t>
   </si>
   <si>
-    <t>productDao</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>attrName</t>
+  </si>
+  <si>
     <t>attrId</t>
   </si>
   <si>
-    <t>attrName</t>
-  </si>
-  <si>
     <t>attrValues</t>
   </si>
   <si>
     <t>productAttrs</t>
   </si>
   <si>
+    <t>brandNames</t>
+  </si>
+  <si>
     <t>productCategoryNames</t>
-  </si>
-  <si>
-    <t>brandNames</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -3576,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4456,10 +4456,10 @@
         <v>94</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81">
@@ -4467,7 +4467,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>188</v>
@@ -4478,7 +4478,7 @@
         <v>94</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>188</v>
@@ -4489,7 +4489,7 @@
         <v>94</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>188</v>
@@ -4500,7 +4500,7 @@
         <v>94</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>188</v>
@@ -4511,7 +4511,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>188</v>
@@ -4519,13 +4519,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87">
@@ -4533,10 +4533,10 @@
         <v>43</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
@@ -4544,7 +4544,7 @@
         <v>43</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>188</v>
@@ -4555,7 +4555,7 @@
         <v>43</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>188</v>
@@ -4566,7 +4566,7 @@
         <v>43</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>188</v>
@@ -4577,7 +4577,7 @@
         <v>43</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>188</v>
@@ -4588,7 +4588,7 @@
         <v>43</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>188</v>
@@ -4596,21 +4596,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>169</v>
@@ -4618,13 +4618,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96">
@@ -4632,9 +4632,20 @@
         <v>113</v>
       </c>
       <c r="B96" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C96" t="s" s="0">
+      <c r="C97" t="s" s="0">
         <v>188</v>
       </c>
     </row>
@@ -4955,7 +4966,7 @@
         <v>93</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -4969,7 +4980,7 @@
         <v>93</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -4977,13 +4988,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -4997,7 +5008,7 @@
         <v>93</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -5011,7 +5022,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -5025,7 +5036,7 @@
         <v>93</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -5081,7 +5092,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5120,7 @@
         <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -5117,13 +5128,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -5131,7 +5142,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>93</v>
@@ -5145,7 +5156,7 @@
         <v>45</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>93</v>
@@ -5159,13 +5170,13 @@
         <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -5173,7 +5184,7 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>93</v>
@@ -5187,7 +5198,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>93</v>
@@ -5201,13 +5212,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -5243,13 +5254,13 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -5291,7 +5302,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -5305,7 +5316,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -5333,7 +5344,7 @@
         <v>93</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -5347,7 +5358,7 @@
         <v>93</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -5375,7 +5386,7 @@
         <v>93</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -5389,7 +5400,7 @@
         <v>93</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="198">
   <si>
     <t>Class Name</t>
   </si>
@@ -408,94 +408,94 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>productAttributeId</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>productAttributeId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>productCategoryName</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
     <t>pic</t>
   </si>
   <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>attrValueList</t>
   </si>
   <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
     <t>subTitle</t>
   </si>
   <si>
-    <t>productCategoryName</t>
+    <t>productRepository</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>productDao</t>
   </si>
   <si>
     <t>elasticsearchRestTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
-  </si>
-  <si>
-    <t>productDao</t>
-  </si>
-  <si>
-    <t>productRepository</t>
-  </si>
-  <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>attrName</t>
@@ -3576,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3598,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
@@ -3609,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>188</v>
@@ -3620,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>188</v>
@@ -3631,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>188</v>
@@ -3642,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>188</v>
@@ -3653,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>188</v>
@@ -3664,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>188</v>
@@ -3675,7 +3675,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>188</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>188</v>
@@ -3697,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>188</v>
@@ -3705,13 +3705,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
@@ -3719,10 +3719,10 @@
         <v>121</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -3730,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>190</v>
@@ -3741,10 +3741,10 @@
         <v>121</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
@@ -3752,7 +3752,7 @@
         <v>121</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>190</v>
@@ -3763,10 +3763,10 @@
         <v>121</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -3774,7 +3774,7 @@
         <v>121</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>190</v>
@@ -3785,7 +3785,7 @@
         <v>121</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>190</v>
@@ -3793,24 +3793,24 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -3818,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>169</v>
@@ -3829,7 +3829,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>169</v>
@@ -3840,7 +3840,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>169</v>
@@ -3851,7 +3851,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>169</v>
@@ -3862,7 +3862,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>169</v>
@@ -3873,7 +3873,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>169</v>
@@ -3881,43 +3881,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>188</v>
@@ -3925,10 +3925,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>188</v>
@@ -3939,10 +3939,10 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -3950,7 +3950,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>188</v>
@@ -3961,7 +3961,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>188</v>
@@ -3972,7 +3972,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>188</v>
@@ -3983,7 +3983,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>188</v>
@@ -3994,7 +3994,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>188</v>
@@ -4005,7 +4005,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>188</v>
@@ -4016,7 +4016,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>188</v>
@@ -4027,7 +4027,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>188</v>
@@ -4038,7 +4038,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>188</v>
@@ -4049,7 +4049,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>188</v>
@@ -4060,7 +4060,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>188</v>
@@ -4071,7 +4071,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>188</v>
@@ -4082,7 +4082,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>188</v>
@@ -4093,7 +4093,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>188</v>
@@ -4104,7 +4104,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>188</v>
@@ -4115,7 +4115,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>188</v>
@@ -4126,7 +4126,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>188</v>
@@ -4137,7 +4137,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>188</v>
@@ -4148,7 +4148,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>188</v>
@@ -4159,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>188</v>
@@ -4170,7 +4170,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>188</v>
@@ -4181,7 +4181,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>188</v>
@@ -4192,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>188</v>
@@ -4203,7 +4203,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>188</v>
@@ -4214,7 +4214,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>188</v>
@@ -4225,7 +4225,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>188</v>
@@ -4236,7 +4236,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>188</v>
@@ -4247,7 +4247,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>188</v>
@@ -4258,7 +4258,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>188</v>
@@ -4269,7 +4269,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>188</v>
@@ -4280,7 +4280,7 @@
         <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>188</v>
@@ -4291,7 +4291,7 @@
         <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>188</v>
@@ -4299,32 +4299,32 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>188</v>
@@ -4332,13 +4332,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70">
@@ -4346,10 +4346,10 @@
         <v>90</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71">
@@ -4357,10 +4357,10 @@
         <v>90</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
@@ -4368,10 +4368,10 @@
         <v>90</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
@@ -4379,10 +4379,10 @@
         <v>90</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74">
@@ -4390,10 +4390,10 @@
         <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75">
@@ -4401,54 +4401,54 @@
         <v>90</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80">
@@ -4456,10 +4456,10 @@
         <v>94</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81">
@@ -4467,7 +4467,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>188</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>188</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>188</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>188</v>
@@ -4508,10 +4508,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>188</v>
@@ -4519,10 +4519,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>188</v>
@@ -4533,119 +4533,42 @@
         <v>43</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B91" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C91" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B92" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="C92" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B93" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="C93" t="s" s="0">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="C94" t="s" s="0">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="C96" t="s" s="0">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C97" t="s" s="0">
         <v>188</v>
       </c>
     </row>
@@ -4966,7 +4889,7 @@
         <v>93</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -5022,7 +4945,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -5064,7 +4987,7 @@
         <v>93</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -5078,7 +5001,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -5092,7 +5015,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -5100,13 +5023,13 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -5114,13 +5037,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -5128,13 +5051,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -5142,13 +5065,13 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -5156,13 +5079,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -5176,7 +5099,7 @@
         <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -5184,13 +5107,13 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -5198,13 +5121,13 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -5212,13 +5135,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -5226,13 +5149,13 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -5240,13 +5163,13 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -5254,7 +5177,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>93</v>
@@ -5274,7 +5197,7 @@
         <v>93</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -5302,7 +5225,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -5330,7 +5253,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -5338,13 +5261,13 @@
         <v>90</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>109</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
@@ -5358,7 +5281,7 @@
         <v>93</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">

--- a/data/mall-swarm/mall-search_structure.xlsx
+++ b/data/mall-swarm/mall-search_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="198">
   <si>
     <t>Class Name</t>
   </si>
@@ -408,109 +408,109 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>productAttributeId</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>productAttributeId</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>esProductService</t>
   </si>
   <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>attrValueList</t>
+  </si>
+  <si>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>productCategoryName</t>
+  </si>
+  <si>
     <t>productCategoryId</t>
   </si>
   <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>productSn</t>
+    <t>keywords</t>
   </si>
   <si>
     <t>brandName</t>
   </si>
   <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>productCategoryName</t>
-  </si>
-  <si>
     <t>sort</t>
   </si>
   <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>attrValueList</t>
-  </si>
-  <si>
-    <t>subTitle</t>
-  </si>
-  <si>
     <t>productRepository</t>
   </si>
   <si>
+    <t>elasticsearchRestTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
+  </si>
+  <si>
+    <t>productDao</t>
+  </si>
+  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>productDao</t>
-  </si>
-  <si>
-    <t>elasticsearchRestTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.data.elasticsearch.core.ElasticsearchRestTemplate</t>
+    <t>attrId</t>
+  </si>
+  <si>
+    <t>attrValues</t>
   </si>
   <si>
     <t>attrName</t>
   </si>
   <si>
-    <t>attrId</t>
-  </si>
-  <si>
-    <t>attrValues</t>
+    <t>brandNames</t>
   </si>
   <si>
     <t>productAttrs</t>
-  </si>
-  <si>
-    <t>brandNames</t>
   </si>
   <si>
     <t>productCategoryNames</t>
@@ -3576,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3708,10 +3708,10 @@
         <v>121</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
@@ -3719,7 +3719,7 @@
         <v>121</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>190</v>
@@ -3730,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>190</v>
@@ -3741,10 +3741,10 @@
         <v>121</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -3752,10 +3752,10 @@
         <v>121</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
@@ -3763,7 +3763,7 @@
         <v>121</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>190</v>
@@ -3774,7 +3774,7 @@
         <v>121</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>190</v>
@@ -3785,7 +3785,7 @@
         <v>121</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>190</v>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -3807,7 +3807,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>169</v>
@@ -3818,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>169</v>
@@ -3829,7 +3829,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>169</v>
@@ -3840,7 +3840,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>169</v>
@@ -3851,7 +3851,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>169</v>
@@ -3862,7 +3862,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>169</v>
@@ -3873,7 +3873,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>169</v>
@@ -3881,13 +3881,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29">
@@ -3895,7 +3895,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>188</v>
@@ -3903,10 +3903,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>188</v>
@@ -3917,7 +3917,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>188</v>
@@ -3928,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>188</v>
@@ -3939,7 +3939,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>188</v>
@@ -3950,7 +3950,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>188</v>
@@ -3961,7 +3961,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>188</v>
@@ -3972,7 +3972,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>188</v>
@@ -3983,7 +3983,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>188</v>
@@ -3994,7 +3994,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>188</v>
@@ -4005,7 +4005,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>188</v>
@@ -4016,7 +4016,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>188</v>
@@ -4027,7 +4027,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>188</v>
@@ -4038,7 +4038,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>188</v>
@@ -4049,7 +4049,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>188</v>
@@ -4060,7 +4060,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>188</v>
@@ -4071,7 +4071,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>188</v>
@@ -4082,7 +4082,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>188</v>
@@ -4093,7 +4093,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>188</v>
@@ -4104,7 +4104,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>188</v>
@@ -4115,7 +4115,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>188</v>
@@ -4126,7 +4126,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>188</v>
@@ -4137,7 +4137,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>188</v>
@@ -4148,7 +4148,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>188</v>
@@ -4159,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>188</v>
@@ -4170,7 +4170,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>188</v>
@@ -4181,7 +4181,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>188</v>
@@ -4192,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>188</v>
@@ -4203,7 +4203,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>188</v>
@@ -4214,7 +4214,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>188</v>
@@ -4225,7 +4225,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>188</v>
@@ -4236,7 +4236,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>188</v>
@@ -4247,7 +4247,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>188</v>
@@ -4258,7 +4258,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>188</v>
@@ -4269,7 +4269,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>188</v>
@@ -4280,7 +4280,7 @@
         <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>188</v>
@@ -4291,7 +4291,7 @@
         <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>188</v>
@@ -4299,13 +4299,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67">
@@ -4313,10 +4313,10 @@
         <v>90</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68">
@@ -4324,10 +4324,10 @@
         <v>90</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69">
@@ -4335,10 +4335,10 @@
         <v>90</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70">
@@ -4346,10 +4346,10 @@
         <v>90</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71">
@@ -4357,10 +4357,10 @@
         <v>90</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72">
@@ -4368,10 +4368,10 @@
         <v>90</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
@@ -4379,10 +4379,10 @@
         <v>90</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74">
@@ -4390,10 +4390,10 @@
         <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -4401,21 +4401,21 @@
         <v>90</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
@@ -4423,7 +4423,7 @@
         <v>94</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>188</v>
@@ -4434,7 +4434,7 @@
         <v>94</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>188</v>
@@ -4445,7 +4445,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>188</v>
@@ -4456,7 +4456,7 @@
         <v>94</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>188</v>
@@ -4467,7 +4467,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>188</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>188</v>
@@ -4489,7 +4489,7 @@
         <v>43</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>188</v>
@@ -4500,7 +4500,7 @@
         <v>43</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>188</v>
@@ -4511,7 +4511,7 @@
         <v>43</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>188</v>
@@ -4522,7 +4522,7 @@
         <v>43</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>188</v>
@@ -4533,7 +4533,7 @@
         <v>43</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>188</v>
@@ -4541,21 +4541,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>169</v>
@@ -4563,12 +4563,23 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B90" t="s" s="0">
+      <c r="B91" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C90" t="s" s="0">
+      <c r="C91" t="s" s="0">
         <v>188</v>
       </c>
     </row>
@@ -4889,7 +4900,7 @@
         <v>93</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -4945,7 +4956,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -4987,7 +4998,7 @@
         <v>93</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -5001,7 +5012,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5026,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -5023,7 +5034,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>93</v>
@@ -5037,13 +5048,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -5051,13 +5062,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -5065,7 +5076,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>93</v>
@@ -5079,13 +5090,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -5093,13 +5104,13 @@
         <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -5107,13 +5118,13 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -5121,13 +5132,13 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -5135,13 +5146,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -5149,13 +5160,13 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -5163,13 +5174,13 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -5177,13 +5188,13 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -5191,13 +5202,13 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -5205,13 +5216,13 @@
         <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -5225,7 +5236,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -5239,7 +5250,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -5309,7 +5320,7 @@
         <v>93</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -5323,7 +5334,7 @@
         <v>93</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -5337,7 +5348,7 @@
         <v>93</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
